--- a/team_specific_matrix/UC Riverside_B.xlsx
+++ b/team_specific_matrix/UC Riverside_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="C2">
-        <v>0.5375</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004166666666666667</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1416666666666667</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1166666666666667</v>
+        <v>0.1083916083916084</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007142857142857143</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02142857142857143</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7785714285714286</v>
+        <v>0.7696629213483146</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1714285714285714</v>
+        <v>0.1741573033707865</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05952380952380952</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0119047619047619</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2976190476190476</v>
+        <v>0.2883720930232558</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04166666666666666</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1488095238095238</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="R6">
-        <v>0.08928571428571429</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="S6">
-        <v>0.3095238095238095</v>
+        <v>0.3116279069767442</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1276595744680851</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02127659574468085</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07092198581560284</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1560283687943262</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02127659574468085</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1843971631205674</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="R7">
-        <v>0.07092198581560284</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S7">
-        <v>0.3475177304964539</v>
+        <v>0.3567251461988304</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08841463414634146</v>
+        <v>0.08831168831168831</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01829268292682927</v>
+        <v>0.01558441558441558</v>
       </c>
       <c r="E8">
-        <v>0.003048780487804878</v>
+        <v>0.002597402597402597</v>
       </c>
       <c r="F8">
-        <v>0.04878048780487805</v>
+        <v>0.04935064935064935</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09451219512195122</v>
+        <v>0.1064935064935065</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03353658536585366</v>
+        <v>0.04155844155844156</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1890243902439024</v>
+        <v>0.1922077922077922</v>
       </c>
       <c r="R8">
-        <v>0.07926829268292683</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S8">
-        <v>0.4451219512195122</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1182795698924731</v>
+        <v>0.1155555555555556</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03225806451612903</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04301075268817205</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05376344086021505</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03225806451612903</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1720430107526882</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="R9">
-        <v>0.08602150537634409</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="S9">
-        <v>0.4623655913978494</v>
+        <v>0.4622222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1101101101101101</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02302302302302302</v>
+        <v>0.02724358974358974</v>
       </c>
       <c r="E10">
-        <v>0.001001001001001001</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="F10">
-        <v>0.06606606606606606</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09509509509509509</v>
+        <v>0.09695512820512821</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02602602602602603</v>
+        <v>0.02644230769230769</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2322322322322322</v>
+        <v>0.2283653846153846</v>
       </c>
       <c r="R10">
-        <v>0.07707707707707707</v>
+        <v>0.07612179487179487</v>
       </c>
       <c r="S10">
-        <v>0.3693693693693694</v>
+        <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="G11">
-        <v>0.1566820276497696</v>
+        <v>0.1535580524344569</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1059907834101382</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K11">
-        <v>0.2073732718894009</v>
+        <v>0.2059925093632959</v>
       </c>
       <c r="L11">
-        <v>0.5207373271889401</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009216589861751152</v>
+        <v>0.00749063670411985</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7155172413793104</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1982758620689655</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K12">
-        <v>0.008620689655172414</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="L12">
-        <v>0.04310344827586207</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7619047619047619</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2380952380952381</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009803921568627451</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1323529411764706</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="I15">
-        <v>0.06862745098039216</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="J15">
-        <v>0.3137254901960784</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0196078431372549</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
-        <v>0.004901960784313725</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="O15">
-        <v>0.04901960784313725</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3431372549019608</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01764705882352941</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1470588235294118</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="I16">
-        <v>0.1058823529411765</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="J16">
-        <v>0.3705882352941177</v>
+        <v>0.4106280193236715</v>
       </c>
       <c r="K16">
-        <v>0.1117647058823529</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02941176470588235</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08823529411764706</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1294117647058824</v>
+        <v>0.1159420289855072</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02666666666666667</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.144</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I17">
-        <v>0.09866666666666667</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="J17">
-        <v>0.4026666666666667</v>
+        <v>0.4069264069264069</v>
       </c>
       <c r="K17">
-        <v>0.1066666666666667</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03733333333333334</v>
+        <v>0.0367965367965368</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1706666666666667</v>
+        <v>0.1796536796536796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01379310344827586</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1862068965517241</v>
+        <v>0.1741573033707865</v>
       </c>
       <c r="I18">
-        <v>0.103448275862069</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="J18">
-        <v>0.3931034482758621</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="K18">
-        <v>0.0896551724137931</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02758620689655172</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06896551724137931</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1172413793103448</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02509293680297398</v>
+        <v>0.02522935779816514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1849442379182156</v>
+        <v>0.1788990825688073</v>
       </c>
       <c r="I19">
-        <v>0.09758364312267657</v>
+        <v>0.09403669724770643</v>
       </c>
       <c r="J19">
-        <v>0.379182156133829</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="K19">
-        <v>0.07620817843866171</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02788104089219331</v>
+        <v>0.02599388379204893</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07156133828996282</v>
+        <v>0.06957186544342507</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.137546468401487</v>
+        <v>0.1376146788990826</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Riverside_B.xlsx
+++ b/team_specific_matrix/UC Riverside_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1888111888111888</v>
+        <v>0.1954397394136808</v>
       </c>
       <c r="C2">
-        <v>0.5734265734265734</v>
+        <v>0.5570032573289903</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006993006993006993</v>
+        <v>0.009771986970684038</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1223776223776224</v>
+        <v>0.1270358306188925</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1083916083916084</v>
+        <v>0.1107491856677524</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005617977528089887</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="C3">
-        <v>0.03370786516853932</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01685393258426966</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7696629213483146</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1741573033707865</v>
+        <v>0.1675675675675676</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05116279069767442</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01395348837209302</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06046511627906977</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2883720930232558</v>
+        <v>0.2838983050847458</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03720930232558139</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1488372093023256</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="R6">
-        <v>0.08837209302325581</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="S6">
-        <v>0.3116279069767442</v>
+        <v>0.3177966101694915</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1286549707602339</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01754385964912281</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07602339181286549</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1461988304093567</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02923976608187134</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1812865497076023</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="R7">
-        <v>0.06432748538011696</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S7">
-        <v>0.3567251461988304</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08831168831168831</v>
+        <v>0.08941176470588236</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01558441558441558</v>
+        <v>0.01647058823529412</v>
       </c>
       <c r="E8">
-        <v>0.002597402597402597</v>
+        <v>0.004705882352941176</v>
       </c>
       <c r="F8">
-        <v>0.04935064935064935</v>
+        <v>0.04941176470588235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1064935064935065</v>
+        <v>0.09647058823529411</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04155844155844156</v>
+        <v>0.03764705882352941</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1922077922077922</v>
+        <v>0.2023529411764706</v>
       </c>
       <c r="R8">
-        <v>0.08571428571428572</v>
+        <v>0.08</v>
       </c>
       <c r="S8">
-        <v>0.4181818181818182</v>
+        <v>0.4235294117647059</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1155555555555556</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02666666666666667</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03555555555555556</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06222222222222222</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03111111111111111</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1822222222222222</v>
+        <v>0.1822033898305085</v>
       </c>
       <c r="R9">
-        <v>0.08444444444444445</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="S9">
-        <v>0.4622222222222222</v>
+        <v>0.4533898305084746</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1081730769230769</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02724358974358974</v>
+        <v>0.02629601803155522</v>
       </c>
       <c r="E10">
-        <v>0.001602564102564103</v>
+        <v>0.001502629601803156</v>
       </c>
       <c r="F10">
-        <v>0.07051282051282051</v>
+        <v>0.07062359128474831</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09695512820512821</v>
+        <v>0.1006761833208114</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02644230769230769</v>
+        <v>0.0270473328324568</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2283653846153846</v>
+        <v>0.2283996994740796</v>
       </c>
       <c r="R10">
-        <v>0.07612179487179487</v>
+        <v>0.07663410969196092</v>
       </c>
       <c r="S10">
-        <v>0.3645833333333333</v>
+        <v>0.3613824192336589</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003745318352059925</v>
+        <v>0.003389830508474576</v>
       </c>
       <c r="G11">
-        <v>0.1535580524344569</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.101123595505618</v>
+        <v>0.09830508474576272</v>
       </c>
       <c r="K11">
-        <v>0.2059925093632959</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L11">
-        <v>0.5280898876404494</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00749063670411985</v>
+        <v>0.01016949152542373</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7083333333333334</v>
+        <v>0.7044025157232704</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2083333333333333</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="K12">
-        <v>0.006944444444444444</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L12">
-        <v>0.03472222222222222</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04166666666666666</v>
+        <v>0.0440251572327044</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7446808510638298</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2340425531914894</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0119047619047619</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.126984126984127</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="I15">
-        <v>0.06746031746031746</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="J15">
-        <v>0.3015873015873016</v>
+        <v>0.2981132075471698</v>
       </c>
       <c r="K15">
-        <v>0.05952380952380952</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="N15">
-        <v>0.003968253968253968</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="O15">
-        <v>0.06349206349206349</v>
+        <v>0.06037735849056604</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3492063492063492</v>
+        <v>0.3547169811320754</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01449275362318841</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1449275362318841</v>
+        <v>0.1493212669683258</v>
       </c>
       <c r="I16">
-        <v>0.106280193236715</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="J16">
-        <v>0.4106280193236715</v>
+        <v>0.4027149321266968</v>
       </c>
       <c r="K16">
-        <v>0.106280193236715</v>
+        <v>0.1085972850678733</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02415458937198068</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07729468599033816</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1159420289855072</v>
+        <v>0.1266968325791855</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02380952380952381</v>
+        <v>0.02594810379241517</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1363636363636364</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="I17">
-        <v>0.1060606060606061</v>
+        <v>0.1037924151696607</v>
       </c>
       <c r="J17">
-        <v>0.4069264069264069</v>
+        <v>0.4151696606786427</v>
       </c>
       <c r="K17">
-        <v>0.09740259740259741</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01298701298701299</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0367965367965368</v>
+        <v>0.03393213572854292</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1796536796536796</v>
+        <v>0.1756487025948104</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01123595505617977</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1741573033707865</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="I18">
-        <v>0.09550561797752809</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J18">
-        <v>0.4157303370786517</v>
+        <v>0.4145077720207254</v>
       </c>
       <c r="K18">
-        <v>0.07865168539325842</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02247191011235955</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07865168539325842</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1235955056179775</v>
+        <v>0.1139896373056995</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02522935779816514</v>
+        <v>0.02498215560314061</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1788990825688073</v>
+        <v>0.1862955032119914</v>
       </c>
       <c r="I19">
-        <v>0.09403669724770643</v>
+        <v>0.092790863668808</v>
       </c>
       <c r="J19">
-        <v>0.3853211009174312</v>
+        <v>0.3740185581727338</v>
       </c>
       <c r="K19">
-        <v>0.08333333333333333</v>
+        <v>0.08779443254817987</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02599388379204893</v>
+        <v>0.02498215560314061</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06957186544342507</v>
+        <v>0.07066381156316917</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1376146788990826</v>
+        <v>0.1384725196288366</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Riverside_B.xlsx
+++ b/team_specific_matrix/UC Riverside_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1954397394136808</v>
+        <v>0.1993865030674846</v>
       </c>
       <c r="C2">
-        <v>0.5570032573289903</v>
+        <v>0.549079754601227</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009771986970684038</v>
+        <v>0.009202453987730062</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1270358306188925</v>
+        <v>0.1257668711656442</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1107491856677524</v>
+        <v>0.1165644171779141</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005405405405405406</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="C3">
-        <v>0.03243243243243243</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01621621621621622</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7783783783783784</v>
+        <v>0.772020725388601</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1675675675675676</v>
+        <v>0.1709844559585492</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03636363636363636</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05508474576271186</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0635593220338983</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2838983050847458</v>
+        <v>0.273469387755102</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03389830508474576</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398305084745763</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R6">
-        <v>0.08898305084745763</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="S6">
-        <v>0.3177966101694915</v>
+        <v>0.3224489795918367</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1236559139784946</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07526881720430108</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1505376344086022</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02688172043010753</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1827956989247312</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="R7">
-        <v>0.06989247311827956</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="S7">
-        <v>0.3548387096774194</v>
+        <v>0.3467336683417085</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08941176470588236</v>
+        <v>0.09567198177676538</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01647058823529412</v>
+        <v>0.01594533029612756</v>
       </c>
       <c r="E8">
-        <v>0.004705882352941176</v>
+        <v>0.004555808656036446</v>
       </c>
       <c r="F8">
-        <v>0.04941176470588235</v>
+        <v>0.05011389521640091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09647058823529411</v>
+        <v>0.09339407744874716</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03764705882352941</v>
+        <v>0.03644646924829157</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2023529411764706</v>
+        <v>0.2004555808656036</v>
       </c>
       <c r="R8">
-        <v>0.08</v>
+        <v>0.08200455580865604</v>
       </c>
       <c r="S8">
-        <v>0.4235294117647059</v>
+        <v>0.4214123006833713</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1101694915254237</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02542372881355932</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0423728813559322</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06779661016949153</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02966101694915254</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1822033898305085</v>
+        <v>0.1844262295081967</v>
       </c>
       <c r="R9">
-        <v>0.08898305084745763</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="S9">
-        <v>0.4533898305084746</v>
+        <v>0.4631147540983607</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1074380165289256</v>
+        <v>0.1056081573197378</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02629601803155522</v>
+        <v>0.0269482884195193</v>
       </c>
       <c r="E10">
-        <v>0.001502629601803156</v>
+        <v>0.001456664238892935</v>
       </c>
       <c r="F10">
-        <v>0.07062359128474831</v>
+        <v>0.07137654770575383</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1006761833208114</v>
+        <v>0.101238164603059</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0270473328324568</v>
+        <v>0.0269482884195193</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2283996994740796</v>
+        <v>0.2286962855061908</v>
       </c>
       <c r="R10">
-        <v>0.07663410969196092</v>
+        <v>0.0764748725418791</v>
       </c>
       <c r="S10">
-        <v>0.3613824192336589</v>
+        <v>0.3612527312454479</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003389830508474576</v>
+        <v>0.003205128205128205</v>
       </c>
       <c r="G11">
-        <v>0.1525423728813559</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09830508474576272</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K11">
-        <v>0.2033898305084746</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="L11">
-        <v>0.5322033898305085</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01016949152542373</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7044025157232704</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138364779874214</v>
+        <v>0.2108433734939759</v>
       </c>
       <c r="K12">
-        <v>0.006289308176100629</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="L12">
-        <v>0.03144654088050314</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0440251572327044</v>
+        <v>0.04216867469879518</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.74</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.24</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01509433962264151</v>
+        <v>0.01824817518248175</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1245283018867925</v>
+        <v>0.1277372262773723</v>
       </c>
       <c r="I15">
-        <v>0.06792452830188679</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="J15">
-        <v>0.2981132075471698</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="K15">
-        <v>0.05660377358490566</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01509433962264151</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="N15">
-        <v>0.007547169811320755</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="O15">
-        <v>0.06037735849056604</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3547169811320754</v>
+        <v>0.3467153284671533</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01357466063348416</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1493212669683258</v>
+        <v>0.148471615720524</v>
       </c>
       <c r="I16">
-        <v>0.09954751131221719</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="J16">
-        <v>0.4027149321266968</v>
+        <v>0.4104803493449782</v>
       </c>
       <c r="K16">
-        <v>0.1085972850678733</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02714932126696833</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07239819004524888</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1266968325791855</v>
+        <v>0.1222707423580786</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02594810379241517</v>
+        <v>0.02509652509652509</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1377245508982036</v>
+        <v>0.138996138996139</v>
       </c>
       <c r="I17">
-        <v>0.1037924151696607</v>
+        <v>0.1042471042471042</v>
       </c>
       <c r="J17">
-        <v>0.4151696606786427</v>
+        <v>0.4092664092664093</v>
       </c>
       <c r="K17">
-        <v>0.09580838323353294</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01197604790419162</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03393213572854292</v>
+        <v>0.03667953667953668</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1756487025948104</v>
+        <v>0.1776061776061776</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0155440414507772</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1761658031088083</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="I18">
-        <v>0.08808290155440414</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="J18">
-        <v>0.4145077720207254</v>
+        <v>0.4170854271356784</v>
       </c>
       <c r="K18">
-        <v>0.09326424870466321</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02590673575129534</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07253886010362694</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1139896373056995</v>
+        <v>0.1206030150753769</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02498215560314061</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1862955032119914</v>
+        <v>0.1880165289256198</v>
       </c>
       <c r="I19">
-        <v>0.092790863668808</v>
+        <v>0.09297520661157024</v>
       </c>
       <c r="J19">
-        <v>0.3740185581727338</v>
+        <v>0.3739669421487603</v>
       </c>
       <c r="K19">
-        <v>0.08779443254817987</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02498215560314061</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07066381156316917</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1384725196288366</v>
+        <v>0.1356749311294766</v>
       </c>
     </row>
   </sheetData>
